--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -41,12 +41,21 @@
   </si>
   <si>
     <t>Rahim</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t>Arif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +412,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -415,11 +427,15 @@
         <v>75</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D5" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
+        <f t="shared" ref="D2:E6" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>IF(C2&lt;100*40%,"1",IF(C2&lt;100*50%,"2",IF(C2&lt;100*60%,"3",IF(C2&lt;100*70%,"4",IF(C2&lt;100*80%,"5",IF(C2&lt;100*100%,"6",))))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>215487</v>
       </c>
@@ -433,8 +449,12 @@
         <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="1">IF(C3&lt;100*40%,"1",IF(C3&lt;100*50%,"2",IF(C3&lt;100*60%,"3",IF(C3&lt;100*70%,"4",IF(C3&lt;100*80%,"5",IF(C3&lt;100*100%,"6",))))))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>521478</v>
       </c>
@@ -448,8 +468,12 @@
         <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>625897</v>
       </c>
@@ -457,14 +481,18 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C5&lt;100*40%,"F",IF(C5&lt;100*50%,"D",IF(C5&lt;100*60%,"C",IF(C5&lt;100*70%,"B",IF(C5&lt;100*80%,"A",IF(C5&lt;100*100%,"A+",))))))</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>526482</v>
       </c>
@@ -477,6 +505,67 @@
       <c r="D6" t="str">
         <f>IF(C6&lt;100*40%,"F",IF(C6&lt;100*50%,"D",IF(C6&lt;100*60%,"C",IF(C6&lt;100*70%,"B",IF(C6&lt;100*80%,"A",IF(C6&lt;100*100%,"A+",))))))</f>
         <v>F</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>125468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(C7&lt;100*40%,"F",IF(C7&lt;100*50%,"D",IF(C7&lt;100*60%,"C",IF(C7&lt;100*70%,"B",IF(C7&lt;100*80%,"A",IF(C7&lt;100*100%,"A+",))))))</f>
+        <v>D</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>256897</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(C8&lt;100*40%,"F",IF(C8&lt;100*50%,"D",IF(C8&lt;100*60%,"C",IF(C8&lt;100*70%,"B",IF(C8&lt;100*80%,"A",IF(C8&lt;100*100%,"A+",))))))</f>
+        <v>B</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>215986</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(C9&lt;100*40%,"F",IF(C9&lt;100*50%,"D",IF(C9&lt;100*60%,"C",IF(C9&lt;100*70%,"B",IF(C9&lt;100*80%,"A",IF(C9&lt;100*100%,"A+",))))))</f>
+        <v>C</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -4,22 +4,67 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Sheet5A1E91" hidden="1">Sheet5!$A$1:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
+      <x15:pivotCaches>
+        <pivotCache cacheId="103" r:id="rId5"/>
+      </x15:pivotCaches>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
+      <x15:pivotTableReferences>
+        <x15:pivotTableReference r:id="rId6"/>
+      </x15:pivotTableReferences>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet5!$A$1:$E$9"/>
+        </x15:modelTables>
+      </x15:dataModel>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_Sheet5!$A$1:$E$9" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet5A1E91"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Marks</t>
@@ -50,6 +95,9 @@
   </si>
   <si>
     <t>Arif</t>
+  </si>
+  <si>
+    <t>Namae</t>
   </si>
 </sst>
 </file>
@@ -102,6 +150,1330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>C
+Arif</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>D
+Karim</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>A
+Minhaz</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>F
+Rahim</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>B
+Rony</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>A+
+Shetu</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>B
+Shuvo</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>A+
+Yasin</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>56</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>65</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>85</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8832-43DD-8E47-87990651BAC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
+      <c15:pivotSource>
+        <c15:name>[Practice.xlsx]PivotChartTable3</c15:name>
+        <c15:fmtId val="0"/>
+      </c15:pivotSource>
+      <c15:pivotOptions>
+        <c15:dropZoneFilter val="1"/>
+        <c15:dropZoneCategories val="1"/>
+        <c15:dropZoneData val="1"/>
+        <c15:dropZoneSeries val="1"/>
+        <c15:dropZonesVisible val="1"/>
+      </c15:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Author" refreshedDate="43353.740663773147" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Sum of Marks]" caption="Sum of Marks" numFmtId="0" hierarchy="8" level="32767"/>
+    <cacheField name="[Range].[Namae].[Namae]" caption="Namae" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="8">
+        <s v="Arif"/>
+        <s v="Karim"/>
+        <s v="Minhaz"/>
+        <s v="Rahim"/>
+        <s v="Rony"/>
+        <s v="Shetu"/>
+        <s v="Shuvo"/>
+        <s v="Yasin"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range].[Grade].[Grade]" caption="Grade" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="6">
+        <s v="C"/>
+        <s v="D"/>
+        <s v="A"/>
+        <s v="F"/>
+        <s v="B"/>
+        <s v="A+"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="9">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Namae]" caption="Namae" attribute="1" defaultMemberUniqueName="[Range].[Namae].[All]" allUniqueName="[Range].[Namae].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[Marks]" caption="Marks" attribute="1" defaultMemberUniqueName="[Range].[Marks].[All]" allUniqueName="[Range].[Marks].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Grade]" caption="Grade" attribute="1" defaultMemberUniqueName="[Range].[Grade].[All]" allUniqueName="[Range].[Grade].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[ID2]" caption="ID2" attribute="1" defaultMemberUniqueName="[Range].[ID2].[All]" allUniqueName="[Range].[ID2].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID]" caption="Sum of ID" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Marks]" caption="Sum of Marks" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
+      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="6"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable3" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Marks" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="9">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="17" columnCount="1" cacheId="1">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>56</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>56</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>45</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>45</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>75</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>75</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>35</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>35</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>68</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>68</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>80</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>80</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>65</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>65</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>85</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>85</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>509</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Sheet5!$A$1:$E$9">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -421,13 +1793,13 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>75</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:E6" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
+        <f t="shared" ref="D2:D4" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
         <v>A</v>
       </c>
       <c r="E2" t="str">
@@ -440,7 +1812,7 @@
         <v>215487</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -459,7 +1831,7 @@
         <v>521478</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -478,7 +1850,7 @@
         <v>625897</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -497,7 +1869,7 @@
         <v>526482</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -516,7 +1888,7 @@
         <v>125468</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -535,7 +1907,7 @@
         <v>256897</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>68</v>
@@ -554,7 +1926,388 @@
         <v>215986</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(C9&lt;100*40%,"F",IF(C9&lt;100*50%,"D",IF(C9&lt;100*60%,"C",IF(C9&lt;100*70%,"B",IF(C9&lt;100*80%,"A",IF(C9&lt;100*100%,"A+",))))))</f>
+        <v>C</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
+        <v>A</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2&lt;100*40%,"1",IF(C2&lt;100*50%,"2",IF(C2&lt;100*60%,"3",IF(C2&lt;100*70%,"4",IF(C2&lt;100*80%,"5",IF(C2&lt;100*100%,"6",))))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>215487</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="1">IF(C3&lt;100*40%,"1",IF(C3&lt;100*50%,"2",IF(C3&lt;100*60%,"3",IF(C3&lt;100*70%,"4",IF(C3&lt;100*80%,"5",IF(C3&lt;100*100%,"6",))))))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>521478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>625897</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(C5&lt;100*40%,"F",IF(C5&lt;100*50%,"D",IF(C5&lt;100*60%,"C",IF(C5&lt;100*70%,"B",IF(C5&lt;100*80%,"A",IF(C5&lt;100*100%,"A+",))))))</f>
+        <v>B</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>526482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(C6&lt;100*40%,"F",IF(C6&lt;100*50%,"D",IF(C6&lt;100*60%,"C",IF(C6&lt;100*70%,"B",IF(C6&lt;100*80%,"A",IF(C6&lt;100*100%,"A+",))))))</f>
+        <v>F</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>125468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(C7&lt;100*40%,"F",IF(C7&lt;100*50%,"D",IF(C7&lt;100*60%,"C",IF(C7&lt;100*70%,"B",IF(C7&lt;100*80%,"A",IF(C7&lt;100*100%,"A+",))))))</f>
+        <v>D</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>256897</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(C8&lt;100*40%,"F",IF(C8&lt;100*50%,"D",IF(C8&lt;100*60%,"C",IF(C8&lt;100*70%,"B",IF(C8&lt;100*80%,"A",IF(C8&lt;100*100%,"A+",))))))</f>
+        <v>B</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>215986</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(C9&lt;100*40%,"F",IF(C9&lt;100*50%,"D",IF(C9&lt;100*60%,"C",IF(C9&lt;100*70%,"B",IF(C9&lt;100*80%,"A",IF(C9&lt;100*100%,"A+",))))))</f>
+        <v>C</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
+        <v>A</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2&lt;100*40%,"1",IF(C2&lt;100*50%,"2",IF(C2&lt;100*60%,"3",IF(C2&lt;100*70%,"4",IF(C2&lt;100*80%,"5",IF(C2&lt;100*100%,"6",))))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>215487</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="1">IF(C3&lt;100*40%,"1",IF(C3&lt;100*50%,"2",IF(C3&lt;100*60%,"3",IF(C3&lt;100*70%,"4",IF(C3&lt;100*80%,"5",IF(C3&lt;100*100%,"6",))))))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>521478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>625897</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(C5&lt;100*40%,"F",IF(C5&lt;100*50%,"D",IF(C5&lt;100*60%,"C",IF(C5&lt;100*70%,"B",IF(C5&lt;100*80%,"A",IF(C5&lt;100*100%,"A+",))))))</f>
+        <v>B</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>526482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(C6&lt;100*40%,"F",IF(C6&lt;100*50%,"D",IF(C6&lt;100*60%,"C",IF(C6&lt;100*70%,"B",IF(C6&lt;100*80%,"A",IF(C6&lt;100*100%,"A+",))))))</f>
+        <v>F</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>125468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(C7&lt;100*40%,"F",IF(C7&lt;100*50%,"D",IF(C7&lt;100*60%,"C",IF(C7&lt;100*70%,"B",IF(C7&lt;100*80%,"A",IF(C7&lt;100*100%,"A+",))))))</f>
+        <v>D</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>256897</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(C8&lt;100*40%,"F",IF(C8&lt;100*50%,"D",IF(C8&lt;100*60%,"C",IF(C8&lt;100*70%,"B",IF(C8&lt;100*80%,"A",IF(C8&lt;100*100%,"A+",))))))</f>
+        <v>B</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>215986</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9">
         <v>56</v>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet5A1E91" hidden="1">Sheet5!$A$1:$E$9</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet5A1E9" hidden="1">Sheet5!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="103" r:id="rId5"/>
+        <pivotCache cacheId="0" r:id="rId5"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -53,7 +53,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet5A1E91"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet5A1E9"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Namae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammount </t>
+  </si>
+  <si>
+    <t>Tax</t>
   </si>
 </sst>
 </file>
@@ -245,6 +254,110 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -307,6 +420,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -321,6 +439,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -335,6 +458,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -349,6 +477,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -363,6 +496,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -377,6 +515,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -393,6 +536,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -409,6 +557,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-69B4-43C3-806D-741DD858F91E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strLit>
@@ -562,6 +715,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -1256,7 +1414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable3" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -1348,12 +1506,132 @@
   <dataFields count="1">
     <dataField name="Sum of Marks" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="9">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -1949,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2144,181 +2422,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123456</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>75</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D4" si="0">IF(C2&lt;100*40%,"F",IF(C2&lt;100*50%,"D",IF(C2&lt;100*60%,"C",IF(C2&lt;100*70%,"B",IF(C2&lt;100*80%,"A",IF(C2&lt;100*100%,"A+",))))))</f>
-        <v>A</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(C2&lt;100*40%,"1",IF(C2&lt;100*50%,"2",IF(C2&lt;100*60%,"3",IF(C2&lt;100*70%,"4",IF(C2&lt;100*80%,"5",IF(C2&lt;100*100%,"6",))))))</f>
+        <v>30000</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2&lt;=8350,C2*0.1,IF(C2&lt;=33950,8350*0.1+(C2-8350)*0.15,IF(C2&lt;=50000,8350*0.1+(33950)*0.15+(C2-33950)*0.25)))</f>
+        <v>4082.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>215487</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>A+</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E9" si="1">IF(C3&lt;100*40%,"1",IF(C3&lt;100*50%,"2",IF(C3&lt;100*60%,"3",IF(C3&lt;100*70%,"4",IF(C3&lt;100*80%,"5",IF(C3&lt;100*100%,"6",))))))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>521478</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>85</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>A+</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>625897</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(C5&lt;100*40%,"F",IF(C5&lt;100*50%,"D",IF(C5&lt;100*60%,"C",IF(C5&lt;100*70%,"B",IF(C5&lt;100*80%,"A",IF(C5&lt;100*100%,"A+",))))))</f>
-        <v>B</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>526482</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(C6&lt;100*40%,"F",IF(C6&lt;100*50%,"D",IF(C6&lt;100*60%,"C",IF(C6&lt;100*70%,"B",IF(C6&lt;100*80%,"A",IF(C6&lt;100*100%,"A+",))))))</f>
-        <v>F</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>125468</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF(C7&lt;100*40%,"F",IF(C7&lt;100*50%,"D",IF(C7&lt;100*60%,"C",IF(C7&lt;100*70%,"B",IF(C7&lt;100*80%,"A",IF(C7&lt;100*100%,"A+",))))))</f>
-        <v>D</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>256897</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>68</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(C8&lt;100*40%,"F",IF(C8&lt;100*50%,"D",IF(C8&lt;100*60%,"C",IF(C8&lt;100*70%,"B",IF(C8&lt;100*80%,"A",IF(C8&lt;100*100%,"A+",))))))</f>
-        <v>B</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>215986</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>56</v>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(C9&lt;100*40%,"F",IF(C9&lt;100*50%,"D",IF(C9&lt;100*60%,"C",IF(C9&lt;100*70%,"B",IF(C9&lt;100*80%,"A",IF(C9&lt;100*100%,"A+",))))))</f>
-        <v>C</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>25000</v>
+      </c>
+      <c r="D3">
+        <f>IF(C3&lt;=8350,C3*0.1,IF(C3&lt;=33950,8350*0.1+(C3-8350)*0.15,IF(C3&lt;=50000,8350*0.1+(33950)*0.15+(C3-33950)*0.25)))</f>
+        <v>3332.5</v>
       </c>
     </row>
   </sheetData>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet5A1E9" hidden="1">Sheet5!$A$1:$E$9</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet5A1E91" hidden="1">Sheet5!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +53,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet5A1E9"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet5A1E91"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -176,7 +176,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -656,7 +655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -715,11 +713,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -2422,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2448,7 @@
         <v>30000</v>
       </c>
       <c r="D2">
-        <f>IF(C2&lt;=8350,C2*0.1,IF(C2&lt;=33950,8350*0.1+(C2-8350)*0.15,IF(C2&lt;=50000,8350*0.1+(33950)*0.15+(C2-33950)*0.25)))</f>
+        <f t="shared" ref="D2:D3" si="0">IF(C2&lt;=8350,C2*0.1,IF(C2&lt;=33950,8350*0.1+(C2-8350)*0.15,IF(C2&lt;=50000,8350*0.1+(33950-8350)*0.15+(C2-33950)*0.25,IF(C2&lt;=100000,8350*0.1+(33950-8350)*0.15+(50000-33950)*0.25+(C2-50000)*0.3))))</f>
         <v>4082.5</v>
       </c>
     </row>
@@ -2470,8 +2463,44 @@
         <v>25000</v>
       </c>
       <c r="D3">
-        <f>IF(C3&lt;=8350,C3*0.1,IF(C3&lt;=33950,8350*0.1+(C3-8350)*0.15,IF(C3&lt;=50000,8350*0.1+(33950)*0.15+(C3-33950)*0.25)))</f>
+        <f t="shared" si="0"/>
         <v>3332.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>40000</v>
+      </c>
+      <c r="D4">
+        <f>IF(C4&lt;=8350,C4*0.1,IF(C4&lt;=33950,8350*0.1+(C4-8350)*0.15,IF(C4&lt;=50000,8350*0.1+(33950-8350)*0.15+(C4-33950)*0.25,IF(C4&lt;=100000,8350*0.1+(33950-8350)*0.15+(50000-33950)*0.25+(C4-50000)*0.3))))</f>
+        <v>6187.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="D5">
+        <f>IF(C5&lt;=8350,C5*0.1,IF(C5&lt;=33950,8350*0.1+(C5-8350)*0.15,IF(C5&lt;=50000,8350*0.1+(33950-8350)*0.15+(C5-33950)*0.25,IF(C5&lt;=100000,8350*0.1+(33950-8350)*0.15+(50000-33950)*0.25+(C5-50000)*0.3))))</f>
+        <v>8687.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" ref="D3:D6" si="1">IF(C6&lt;=8350,C6*0.1,IF(C6&lt;=33950,8350*0.1+(C6-8350)*0.15,IF(C6&lt;=100000,8350*0.1+(33950-8350)*0.15+(C6-33950)*0.25,)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
